--- a/Folder/DictionnaireCreditReporting_v2.0.xlsx
+++ b/Folder/DictionnaireCreditReporting_v2.0.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaouedraogo\Documents\R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaouedraogo\Documents\Coris\Reporting\Folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7455" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7455"/>
   </bookViews>
   <sheets>
     <sheet name="Description des donnees" sheetId="1" r:id="rId1"/>
@@ -942,8 +942,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1448,7 +1448,7 @@
     <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>58</v>
       </c>
@@ -2407,7 +2407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
